--- a/AAII_Financials/Quarterly/VNTRQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VNTRQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>VNTRQ</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -876,7 +876,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8000</v>
+        <v>-4000</v>
       </c>
       <c r="E14" s="3">
         <v>121000</v>
@@ -944,7 +944,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>52000</v>
+        <v>582000</v>
       </c>
       <c r="E17" s="3">
         <v>529000</v>
@@ -973,7 +973,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>386000</v>
+        <v>-144000</v>
       </c>
       <c r="E18" s="3">
         <v>-163000</v>
@@ -1015,7 +1015,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-529000</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="3">
         <v>3000</v>
@@ -1188,8 +1188,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-168000</v>
       </c>
       <c r="E26" s="3">
         <v>-226000</v>
@@ -1217,8 +1217,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-170000</v>
       </c>
       <c r="E27" s="3">
         <v>-228000</v>
@@ -1363,7 +1363,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>529000</v>
+        <v>-1000</v>
       </c>
       <c r="E32" s="3">
         <v>-3000</v>
@@ -1391,8 +1391,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-170000</v>
       </c>
       <c r="E33" s="3">
         <v>-228000</v>
@@ -1449,8 +1449,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-170000</v>
       </c>
       <c r="E35" s="3">
         <v>-228000</v>
@@ -1742,7 +1742,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>598000</v>
+        <v>616000</v>
       </c>
       <c r="E48" s="3">
         <v>657000</v>
@@ -1770,8 +1770,8 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>2000</v>
       </c>
       <c r="E49" s="3">
         <v>2000</v>
@@ -1971,7 +1971,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>33000</v>
+        <v>277000</v>
       </c>
       <c r="E57" s="3">
         <v>285000</v>
@@ -2029,7 +2029,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3000</v>
+        <v>145000</v>
       </c>
       <c r="E59" s="3">
         <v>203000</v>
@@ -2116,7 +2116,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>215000</v>
+        <v>231000</v>
       </c>
       <c r="E62" s="3">
         <v>224000</v>
@@ -2597,8 +2597,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-170000</v>
       </c>
       <c r="E81" s="3">
         <v>-228000</v>
@@ -3130,7 +3130,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1000</v>
+        <v>1000</v>
       </c>
       <c r="E101" s="3">
         <v>3000</v>
